--- a/QTsys/各种单据/1.xlsx
+++ b/QTsys/各种单据/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27975" windowHeight="15195"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="13935" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>广州乔泰电子有限公司</t>
   </si>
@@ -25,22 +25,37 @@
     <t>广州市番禺区石基镇凌边村北约大道8号之二</t>
   </si>
   <si>
-    <t>白先生</t>
-  </si>
-  <si>
-    <t>花都区花东镇胡忠大道珠湖村西路段</t>
+    <t>彬彬电子</t>
+  </si>
+  <si>
+    <t>广州市白云区增槎路凰岗村凤鸡大街川陕停车场C20-25档</t>
+  </si>
+  <si>
+    <t>陈先生</t>
+  </si>
+  <si>
+    <t>签回单</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -74,9 +89,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -372,46 +399,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="41.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="11.1" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27.95" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="9.9499999999999993" customHeight="1"/>
+    <row r="4" spans="1:4" ht="33.950000000000003" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="33.950000000000003" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="24" customHeight="1"/>
+    <row r="7" spans="1:4" ht="30" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B7" s="4"/>
+      <c r="D7" s="2">
+        <v>42184.519363425927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.95" customHeight="1"/>
+    <row r="10" spans="1:4" ht="24" customHeight="1">
+      <c r="A10" s="1">
+        <v>13902237366</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>